--- a/数据整理/stocks/A股/创业板/300337-银邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300337-银邦股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300337-银邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300337-银邦股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,17 +690,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -709,14 +730,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.58</v>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -725,13 +768,269 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300337-银邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300337-银邦股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,133 +453,367 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519957</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长信睿进灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3023</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519956</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信睿进灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.51</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3021</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -673,89 +907,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金规模</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160324</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>16.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>27.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0589</t>
+          <t>0.3023</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -763,278 +997,44 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011027</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合A</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>16.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.88</t>
+          <t>27.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.3021</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011028</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保稳弘混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>38.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005128</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏永康添福混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>015067</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏永康添福混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>015407</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国寿安保稳弘混合E</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>38.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300337-银邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300337-银邦股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.58</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -532,6 +549,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -813,7 +1152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -907,7 +1246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300337-银邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300337-银邦股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.58</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,7 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1152,7 +1301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1246,7 +1395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
